--- a/REGULAR/CTO/BAUTISTA JANICE.xlsx
+++ b/REGULAR/CTO/BAUTISTA JANICE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -926,7 +926,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1255,12 +1255,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1421,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.1890000000000001</v>
+        <v>6.4390000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1431,7 +1431,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>22.75</v>
+        <v>22</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2113,15 +2113,17 @@
       <c r="B39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D39" s="39">
         <v>1</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
@@ -2131,12 +2133,14 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B40" s="20"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="39"/>
+      <c r="D40" s="39">
+        <v>1</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13" t="str">
@@ -2146,13 +2150,15 @@
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="48">
+        <v>45219</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B41" s="20"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
       <c r="E41" s="9"/>
@@ -2161,16 +2167,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H41" s="39"/>
+      <c r="H41" s="39">
+        <v>1</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="48">
+        <v>45226</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
       <c r="E42" s="9"/>
@@ -2179,14 +2191,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="39">
+        <v>1</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="48">
+        <v>45236</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2204,7 +2220,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -2222,7 +2238,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2240,7 +2256,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2258,7 +2274,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2276,7 +2292,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2294,7 +2310,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2312,7 +2328,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2330,7 +2346,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2348,7 +2364,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2366,7 +2382,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2384,7 +2400,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2402,7 +2418,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2420,7 +2436,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2438,7 +2454,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2456,7 +2472,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2474,7 +2490,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2492,7 +2508,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2510,7 +2526,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2528,7 +2544,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2546,7 +2562,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2564,7 +2580,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2582,7 +2598,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2600,7 +2616,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2618,7 +2634,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2636,7 +2652,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2654,7 +2670,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2672,7 +2688,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2690,7 +2706,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2708,7 +2724,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2726,7 +2742,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2744,7 +2760,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2762,7 +2778,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2780,7 +2796,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2798,7 +2814,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2816,7 +2832,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2834,7 +2850,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2852,7 +2868,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2870,7 +2886,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2888,7 +2904,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2906,7 +2922,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2924,7 +2940,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2942,7 +2958,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2960,7 +2976,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2978,7 +2994,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2996,7 +3012,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3014,7 +3030,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3032,7 +3048,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3050,7 +3066,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3068,7 +3084,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3086,7 +3102,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3104,7 +3120,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3122,7 +3138,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3140,7 +3156,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3158,7 +3174,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3176,7 +3192,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3194,7 +3210,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3212,7 +3228,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3230,7 +3246,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3248,7 +3264,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3266,7 +3282,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3284,7 +3300,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3302,7 +3318,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3320,7 +3336,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3338,7 +3354,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3356,7 +3372,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3374,7 +3390,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3392,7 +3408,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3410,7 +3426,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3428,7 +3444,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3446,7 +3462,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3464,7 +3480,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3482,7 +3498,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3500,7 +3516,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3518,7 +3534,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3536,7 +3552,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3554,7 +3570,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3572,7 +3588,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3590,7 +3606,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3608,7 +3624,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3626,7 +3642,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3644,7 +3660,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3662,7 +3678,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3680,7 +3696,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3698,7 +3714,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3716,7 +3732,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3734,7 +3750,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3752,7 +3768,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3770,7 +3786,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3788,7 +3804,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>48030</v>
+        <v>47969</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3806,7 +3822,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>48061</v>
+        <v>48000</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3824,7 +3840,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>48092</v>
+        <v>48030</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3842,7 +3858,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>48122</v>
+        <v>48061</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -3860,7 +3876,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>48153</v>
+        <v>48092</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -3878,21 +3894,57 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
+        <v>48122</v>
+      </c>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="40">
+        <v>48153</v>
+      </c>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="40">
         <v>48183</v>
       </c>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="43"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="43"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
